--- a/biology/Botanique/Europlant/Europlant.xlsx
+++ b/biology/Botanique/Europlant/Europlant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Europlant Pflanzenzucht GmbH est une entreprise allemande de sélection et de production de plants de pomme de terre dont le siège est à Lunebourg (Land de Basse-Saxe) et qui emploie 130 salariés[1].
+Europlant Pflanzenzucht GmbH est une entreprise allemande de sélection et de production de plants de pomme de terre dont le siège est à Lunebourg (Land de Basse-Saxe) et qui emploie 130 salariés.
 C'est une filiale du groupe « Böhm-Nordkartoffel Gruppe ». 
-En 2008, Europlant a réalisé un chiffre d'affaires de 98 millions d'euros[2].
+En 2008, Europlant a réalisé un chiffre d'affaires de 98 millions d'euros.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Europlant trouve son origine en 1900 dans l'Odenwald. C'est là que Georg Friedrich Böhm fonda sa station de sélection. Celle-ci a été absorbée en 1928 dans la coopérative Saatzuchtvereinigung Lüneburg Ebstorf puis en 1975 dans la société Nordkartoffel Zuchtgesellschaft mbH.
-Europlant a pris naissance en 1993 par la fusion de Kartoffelzucht Böhm (Lunebourg) avec Nordkartoffel Zuchtgesellschaft mbH (Ebstorf)[3].
+Europlant a pris naissance en 1993 par la fusion de Kartoffelzucht Böhm (Lunebourg) avec Nordkartoffel Zuchtgesellschaft mbH (Ebstorf).
 Son association avec la société sœur Böhm-Nordkartoffel Agrarproduktion OHG (BNA) a permis à l'entreprise d'acquérir une position de leader dans le secteur en Allemagne. 
 Bioplant est une autre société sœur qui abrite le centre de compétence en génie génétique du groupe.
 </t>
@@ -548,9 +562,11 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plants de base produits par Europlant sont multipliés exclusivement dans les exploitations agricoles propres à l'entreprise[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plants de base produits par Europlant sont multipliés exclusivement dans les exploitations agricoles propres à l'entreprise.
 Europlant produit exclusivement des pommes de terre, dont des variétés très connues telles que 'Cilena' ou 'Belana'. La variété 'Linda' n'est plus plantée par l'entreprise.
 </t>
         </is>
